--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/67/correct_predictions_67.xlsx
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12-16</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>12-16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori1/67/correct_predictions_67.xlsx
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8-16</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Critically Low Voltage . Aircraft will land .</t>
+          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aircraft will land</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -857,21 +857,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extra payload detected . Max altitude set to nnn and max distance set to nnn to ensure flight safety .</t>
+          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-18</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning . Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>12-16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12-16</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
